--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>15014.8352352614</v>
+        <v>14349.62434501729</v>
       </c>
       <c r="R2">
-        <v>135133.5171173526</v>
+        <v>129146.6191051556</v>
       </c>
       <c r="S2">
-        <v>0.01180651836834743</v>
+        <v>0.01502468582354174</v>
       </c>
       <c r="T2">
-        <v>0.01180651836834743</v>
+        <v>0.01502468582354174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>8876.631563286719</v>
+        <v>4032.18755700984</v>
       </c>
       <c r="R3">
-        <v>79889.68406958049</v>
+        <v>36289.68801308856</v>
       </c>
       <c r="S3">
-        <v>0.006979904338535532</v>
+        <v>0.004221877156436053</v>
       </c>
       <c r="T3">
-        <v>0.006979904338535534</v>
+        <v>0.004221877156436053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>39.05785861114</v>
+        <v>31.20138818461333</v>
       </c>
       <c r="R4">
-        <v>351.52072750026</v>
+        <v>280.81249366152</v>
       </c>
       <c r="S4">
-        <v>3.071211357936111E-05</v>
+        <v>3.266922139985943E-05</v>
       </c>
       <c r="T4">
-        <v>3.071211357936112E-05</v>
+        <v>3.266922139985943E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>5901.138976074047</v>
+        <v>4275.413507047147</v>
       </c>
       <c r="R5">
-        <v>53110.25078466642</v>
+        <v>38478.72156342432</v>
       </c>
       <c r="S5">
-        <v>0.00464020447933848</v>
+        <v>0.004476545389943637</v>
       </c>
       <c r="T5">
-        <v>0.004640204479338481</v>
+        <v>0.004476545389943637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I6">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J6">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>602319.7964454555</v>
+        <v>554277.6905249411</v>
       </c>
       <c r="R6">
-        <v>5420878.1680091</v>
+        <v>4988499.21472447</v>
       </c>
       <c r="S6">
-        <v>0.4736182334956374</v>
+        <v>0.5803530433204176</v>
       </c>
       <c r="T6">
-        <v>0.4736182334956374</v>
+        <v>0.5803530433204176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>356085.8865613175</v>
+        <v>155749.8338023653</v>
       </c>
       <c r="R7">
-        <v>3204772.979051857</v>
+        <v>1401748.504221288</v>
       </c>
       <c r="S7">
-        <v>0.2799987142397892</v>
+        <v>0.1630769045715086</v>
       </c>
       <c r="T7">
-        <v>0.2799987142397892</v>
+        <v>0.1630769045715085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>1566.80516833175</v>
+        <v>1205.204608031767</v>
       </c>
       <c r="R8">
-        <v>14101.24651498575</v>
+        <v>10846.8414722859</v>
       </c>
       <c r="S8">
-        <v>0.001232015783702234</v>
+        <v>0.001261902064708039</v>
       </c>
       <c r="T8">
-        <v>0.001232015783702234</v>
+        <v>0.001261902064708039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>236724.0646449481</v>
+        <v>165144.8336031249</v>
       </c>
       <c r="R9">
-        <v>2130516.581804533</v>
+        <v>1486303.502428124</v>
       </c>
       <c r="S9">
-        <v>0.1861417040992117</v>
+        <v>0.1729138812703212</v>
       </c>
       <c r="T9">
-        <v>0.1861417040992116</v>
+        <v>0.1729138812703212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H10">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I10">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J10">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>50.52721950337066</v>
+        <v>290.8545071827789</v>
       </c>
       <c r="R10">
-        <v>454.744975530336</v>
+        <v>2617.69056464501</v>
       </c>
       <c r="S10">
-        <v>3.973074201754187E-05</v>
+        <v>0.000304537421030101</v>
       </c>
       <c r="T10">
-        <v>3.973074201754187E-05</v>
+        <v>0.000304537421030101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H11">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I11">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J11">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>29.87122432055966</v>
+        <v>81.72896352996601</v>
       </c>
       <c r="R11">
-        <v>268.8410188850369</v>
+        <v>735.5606717696941</v>
       </c>
       <c r="S11">
-        <v>2.348844679943464E-05</v>
+        <v>8.557380808005818E-05</v>
       </c>
       <c r="T11">
-        <v>2.348844679943464E-05</v>
+        <v>8.557380808005818E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.131435674415</v>
+        <v>0.6324252235219999</v>
       </c>
       <c r="R12">
-        <v>1.182921069735</v>
+        <v>5.691827011697999</v>
       </c>
       <c r="S12">
-        <v>1.033509645575417E-07</v>
+        <v>6.621769366109325E-07</v>
       </c>
       <c r="T12">
-        <v>1.033509645575418E-07</v>
+        <v>6.621769366109326E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>19.85823618388833</v>
+        <v>86.65894372535199</v>
       </c>
       <c r="R13">
-        <v>178.724125654995</v>
+        <v>779.9304935281679</v>
       </c>
       <c r="S13">
-        <v>1.561499853940804E-05</v>
+        <v>9.073571349102997E-05</v>
       </c>
       <c r="T13">
-        <v>1.561499853940804E-05</v>
+        <v>9.073571349102997E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H14">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I14">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J14">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>22648.5499711832</v>
+        <v>34827.17564117123</v>
       </c>
       <c r="R14">
-        <v>203836.9497406488</v>
+        <v>313444.5807705411</v>
       </c>
       <c r="S14">
-        <v>0.01780908794944588</v>
+        <v>0.0364655798332171</v>
       </c>
       <c r="T14">
-        <v>0.01780908794944588</v>
+        <v>0.0364655798332171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H15">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I15">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J15">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>13389.613031833</v>
+        <v>9786.298295320123</v>
       </c>
       <c r="R15">
-        <v>120506.517286497</v>
+        <v>88076.68465788109</v>
       </c>
       <c r="S15">
-        <v>0.01052856789491425</v>
+        <v>0.01024668337841911</v>
       </c>
       <c r="T15">
-        <v>0.01052856789491425</v>
+        <v>0.01024668337841911</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H16">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I16">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J16">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>58.91532265664666</v>
+        <v>75.72715497121843</v>
       </c>
       <c r="R16">
-        <v>530.2379039098199</v>
+        <v>681.5443947409659</v>
       </c>
       <c r="S16">
-        <v>4.632650496818486E-05</v>
+        <v>7.928965138019737E-05</v>
       </c>
       <c r="T16">
-        <v>4.632650496818486E-05</v>
+        <v>7.928965138019739E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>8901.34582846677</v>
+        <v>10376.6184792336</v>
       </c>
       <c r="R17">
-        <v>80112.11245620094</v>
+        <v>93389.56631310245</v>
       </c>
       <c r="S17">
-        <v>0.006999337746977021</v>
+        <v>0.01086477449253774</v>
       </c>
       <c r="T17">
-        <v>0.006999337746977021</v>
+        <v>0.01086477449253774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H18">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I18">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J18">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N18">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q18">
-        <v>57.43886541169067</v>
+        <v>302.4193562642847</v>
       </c>
       <c r="R18">
-        <v>516.9497887052161</v>
+        <v>2721.774206378562</v>
       </c>
       <c r="S18">
-        <v>4.516553188326449E-05</v>
+        <v>0.0003166463250591207</v>
       </c>
       <c r="T18">
-        <v>4.516553188326449E-05</v>
+        <v>0.0003166463250591208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H19">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I19">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J19">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N19">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q19">
-        <v>33.95732538412466</v>
+        <v>84.97864027717202</v>
       </c>
       <c r="R19">
-        <v>305.615928457122</v>
+        <v>764.8077624945481</v>
       </c>
       <c r="S19">
-        <v>2.670144424536128E-05</v>
+        <v>8.897636211080487E-05</v>
       </c>
       <c r="T19">
-        <v>2.670144424536129E-05</v>
+        <v>8.897636211080488E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H20">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I20">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J20">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N20">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q20">
-        <v>0.14941483199</v>
+        <v>0.6575714807906666</v>
       </c>
       <c r="R20">
-        <v>1.34473348791</v>
+        <v>5.918143327116</v>
       </c>
       <c r="S20">
-        <v>1.174883993565694E-07</v>
+        <v>6.885061704651179E-07</v>
       </c>
       <c r="T20">
-        <v>1.174883993565694E-07</v>
+        <v>6.88506170465118E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H21">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I21">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J21">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N21">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q21">
-        <v>22.57465514016333</v>
+        <v>90.10464451731734</v>
       </c>
       <c r="R21">
-        <v>203.17189626147</v>
+        <v>810.941800655856</v>
       </c>
       <c r="S21">
-        <v>1.775098270446036E-05</v>
+        <v>9.434351329097282E-05</v>
       </c>
       <c r="T21">
-        <v>1.775098270446036E-05</v>
+        <v>9.434351329097282E-05</v>
       </c>
     </row>
   </sheetData>
